--- a/xlsx/制造业_intext.xlsx
+++ b/xlsx/制造业_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>工業</t>
+    <t>工业</t>
   </si>
   <si>
     <t>政策_政策_加州_制造业</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E5%93%81</t>
   </si>
   <si>
-    <t>產品</t>
+    <t>产品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%80%E5%94%AE</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>機器</t>
+    <t>机器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B7</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E5%B7%A5%E8%97%9D</t>
   </si>
   <si>
-    <t>手工藝</t>
+    <t>手工艺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%A7%91%E6%8A%80</t>
@@ -83,25 +83,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>飛機</t>
+    <t>飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E9%9B%BB</t>
   </si>
   <si>
-    <t>家電</t>
+    <t>家电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E7%99%BC%E5%95%86</t>
   </si>
   <si>
-    <t>批發商</t>
+    <t>批发商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B6%E5%94%AE%E5%95%86</t>
@@ -113,37 +113,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85</t>
   </si>
   <si>
-    <t>消費者</t>
+    <t>消费者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>自由市場經濟</t>
+    <t>自由市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%87%8F%E7%94%9F%E7%94%A2</t>
   </si>
   <si>
-    <t>大量生產</t>
+    <t>大量生产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>集體主義</t>
+    <t>集体主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>計劃經濟</t>
+    <t>计划经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>法規</t>
+    <t>法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>工業設計</t>
+    <t>工业设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>通用汽車</t>
+    <t>通用汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E7%94%B5%E6%B0%94</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%9D%E7%91%9E</t>
   </si>
   <si>
-    <t>輝瑞</t>
+    <t>辉瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E9%9B%86%E5%9B%A2</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8A%E5%BA%8A</t>
   </si>
   <si>
-    <t>車床</t>
+    <t>车床</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%96%E6%8B%89%E6%9C%BA</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界銀行</t>
+    <t>世界银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>世界生產總值</t>
+    <t>世界生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E5%85%83%E5%8C%BA</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -401,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>科學管理</t>
+    <t>科学管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E4%B8%BB%E4%B9%89</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>管理學</t>
+    <t>管理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E9%9D%A2%E5%93%81%E8%B4%A8%E7%AE%A1%E7%90%86</t>
@@ -437,19 +437,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E6%A8%99%E6%BA%96%E5%B7%AE</t>
   </si>
   <si>
-    <t>六標準差</t>
+    <t>六标准差</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>工廠</t>
+    <t>工厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2%E7%B7%9A</t>
   </si>
   <si>
-    <t>生產線</t>
+    <t>生产线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E7%AE%A1%E7%90%86</t>
@@ -461,19 +461,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>勞工</t>
+    <t>劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8B%95%E5%8C%96</t>
   </si>
   <si>
-    <t>自動化</t>
+    <t>自动化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>工人階級</t>
+    <t>工人阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E6%9C%BA%E5%99%A8%E4%BA%BA</t>
